--- a/Predictive Analytics Outcomes.xlsx
+++ b/Predictive Analytics Outcomes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dills\Documents\data-analytics-capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C2B4AE-116C-4150-930D-C665FEEE388F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C61205F-8612-468C-BDCD-5AA8EF22A421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4848" yWindow="612" windowWidth="21996" windowHeight="12360" xr2:uid="{7244F578-F21A-4DB7-8AB0-DDD047FC6053}"/>
+    <workbookView xWindow="-27495" yWindow="1950" windowWidth="21990" windowHeight="12360" xr2:uid="{7244F578-F21A-4DB7-8AB0-DDD047FC6053}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,10 +95,10 @@
     <t>Poverty Rate, Median Income, Violent Crime Rate</t>
   </si>
   <si>
-    <t>Pipelined Linear Regression (poly = 4)</t>
-  </si>
-  <si>
-    <t>Pipelined Linear Regression (poly = 3)</t>
+    <t>Polynomial Linear Regression (poly = 4)</t>
+  </si>
+  <si>
+    <t>Polynomial Linear Regression (poly = 3)</t>
   </si>
 </sst>
 </file>
@@ -462,13 +462,13 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="53.109375" customWidth="1"/>
     <col min="3" max="4" width="15.109375" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
